--- a/output/Sanikiluaq/k_27/clusters_data.xlsx
+++ b/output/Sanikiluaq/k_27/clusters_data.xlsx
@@ -20,6 +20,252 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>914</t>
+  </si>
+  <si>
+    <t>824</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>911</t>
+  </si>
+  <si>
+    <t>826</t>
+  </si>
+  <si>
+    <t>912</t>
+  </si>
+  <si>
+    <t>827</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>828</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>808</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>706</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>819</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>963</t>
+  </si>
+  <si>
+    <t>935</t>
+  </si>
+  <si>
+    <t>955</t>
+  </si>
+  <si>
+    <t>961</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>962</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>937</t>
+  </si>
+  <si>
+    <t>938</t>
+  </si>
+  <si>
+    <t>939</t>
+  </si>
+  <si>
+    <t>936</t>
+  </si>
+  <si>
+    <t>818</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>920</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>940</t>
+  </si>
+  <si>
+    <t>941</t>
+  </si>
+  <si>
+    <t>944</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>945</t>
+  </si>
+  <si>
+    <t>942</t>
+  </si>
+  <si>
+    <t>943</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>805</t>
   </si>
   <si>
@@ -32,9 +278,6 @@
     <t>507</t>
   </si>
   <si>
-    <t>204</t>
-  </si>
-  <si>
     <t>601</t>
   </si>
   <si>
@@ -44,124 +287,121 @@
     <t>600</t>
   </si>
   <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>915</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>606</t>
+  </si>
+  <si>
+    <t>603</t>
+  </si>
+  <si>
+    <t>604</t>
+  </si>
+  <si>
+    <t>605</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
     <t>501</t>
   </si>
   <si>
+    <t>803</t>
+  </si>
+  <si>
     <t>502</t>
   </si>
   <si>
     <t>499</t>
   </si>
   <si>
+    <t>800</t>
+  </si>
+  <si>
     <t>500</t>
   </si>
   <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>949</t>
-  </si>
-  <si>
-    <t>951</t>
-  </si>
-  <si>
-    <t>963</t>
-  </si>
-  <si>
-    <t>955</t>
-  </si>
-  <si>
-    <t>957</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>950</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>914</t>
-  </si>
-  <si>
-    <t>824</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>911</t>
-  </si>
-  <si>
-    <t>826</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>823</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>412</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>707</t>
-  </si>
-  <si>
-    <t>603</t>
-  </si>
-  <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>604</t>
-  </si>
-  <si>
-    <t>702</t>
+    <t>930</t>
+  </si>
+  <si>
+    <t>932</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>933</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>306</t>
+  </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>301</t>
   </si>
   <si>
     <t>704</t>
@@ -170,289 +410,49 @@
     <t>703</t>
   </si>
   <si>
-    <t>907</t>
+    <t>410</t>
+  </si>
+  <si>
+    <t>411</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>413</t>
+  </si>
+  <si>
+    <t>959</t>
+  </si>
+  <si>
+    <t>918</t>
+  </si>
+  <si>
+    <t>917</t>
+  </si>
+  <si>
+    <t>926</t>
+  </si>
+  <si>
+    <t>919</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>928</t>
+  </si>
+  <si>
+    <t>816</t>
   </si>
   <si>
     <t>820</t>
   </si>
   <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>918</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t>902</t>
-  </si>
-  <si>
-    <t>917</t>
-  </si>
-  <si>
-    <t>919</t>
-  </si>
-  <si>
-    <t>803</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>828</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
-    <t>818</t>
-  </si>
-  <si>
-    <t>706</t>
-  </si>
-  <si>
-    <t>705</t>
-  </si>
-  <si>
     <t>814</t>
   </si>
   <si>
     <t>815</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>819</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>912</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
-    <t>915</t>
-  </si>
-  <si>
-    <t>908</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>931</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>929</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>306</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>413</t>
-  </si>
-  <si>
-    <t>935</t>
-  </si>
-  <si>
-    <t>961</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>934</t>
-  </si>
-  <si>
-    <t>937</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>927</t>
-  </si>
-  <si>
-    <t>928</t>
-  </si>
-  <si>
-    <t>936</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>809</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>606</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>605</t>
-  </si>
-  <si>
-    <t>812</t>
-  </si>
-  <si>
-    <t>940</t>
-  </si>
-  <si>
-    <t>941</t>
-  </si>
-  <si>
-    <t>944</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>945</t>
-  </si>
-  <si>
-    <t>942</t>
-  </si>
-  <si>
-    <t>943</t>
   </si>
 </sst>
 </file>
@@ -793,18 +793,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -829,547 +829,547 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>95</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="D20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" t="s">
-        <v>107</v>
-      </c>
-      <c r="J22" t="s">
-        <v>108</v>
-      </c>
-      <c r="K22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="G23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H24" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" t="s">
-        <v>122</v>
-      </c>
-      <c r="L24" t="s">
-        <v>123</v>
-      </c>
-      <c r="M24" t="s">
-        <v>124</v>
-      </c>
-      <c r="N24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>135</v>
@@ -1383,30 +1383,30 @@
       <c r="F27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="G27" t="s">
+        <v>139</v>
+      </c>
+      <c r="H27" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" t="s">
-        <v>144</v>
-      </c>
-      <c r="H28" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1433,22 +1433,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1456,13 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1470,7 +1455,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1478,7 +1478,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1486,19 +1489,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>22</v>
-      </c>
-      <c r="D6">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
@@ -1508,13 +1511,7 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1522,13 +1519,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>16</v>
+      </c>
+      <c r="G9">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>23</v>
+      <c r="H9">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1536,10 +1545,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1547,16 +1562,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F11">
         <v>25</v>
@@ -1570,22 +1585,22 @@
         <v>6</v>
       </c>
       <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
       <c r="E12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G12">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1593,10 +1608,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1604,6 +1616,12 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
         <v>24</v>
       </c>
     </row>
@@ -1612,7 +1630,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1620,123 +1641,120 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
         <v>24</v>
       </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18">
         <v>10</v>
       </c>
-      <c r="D18">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="G18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
         <v>7</v>
       </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1744,99 +1762,75 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>15</v>
-      </c>
-      <c r="E24">
-        <v>16</v>
-      </c>
-      <c r="F24">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>8</v>
-      </c>
-      <c r="D25">
-        <v>17</v>
-      </c>
-      <c r="E25">
-        <v>18</v>
-      </c>
-      <c r="F25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>12</v>
-      </c>
-      <c r="F26">
-        <v>15</v>
-      </c>
-      <c r="G26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>14</v>
-      </c>
-      <c r="G27">
-        <v>15</v>
-      </c>
-      <c r="H27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
